--- a/SkipList/Data rand_C.xlsx
+++ b/SkipList/Data rand_C.xlsx
@@ -878,6 +878,20 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:hiLowLines>
         <c:smooth val="0"/>
         <c:axId val="1593147983"/>
         <c:axId val="1593148399"/>
@@ -1010,67 +1024,6 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="es-ES"/>
-                  <a:t>Mitjana</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="es-ES" baseline="0"/>
-                  <a:t> d'iteracions</a:t>
-                </a:r>
-                <a:endParaRPr lang="es-ES"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="es-ES"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1252,6 +1205,20 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:cat>
             <c:numRef>
               <c:f>Hoja1!$A$2:$A$51</c:f>
@@ -2686,6 +2653,21 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:forward val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:cat>
             <c:numRef>
               <c:f>Hoja1!$A$2:$A$51</c:f>
@@ -3029,6 +3011,21 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:forward val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:cat>
             <c:numRef>
               <c:f>Hoja1!$A$2:$A$51</c:f>
@@ -6289,8 +6286,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U110" sqref="U110"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
